--- a/biology/Médecine/Jules_Lemaire/Jules_Lemaire.xlsx
+++ b/biology/Médecine/Jules_Lemaire/Jules_Lemaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Lemaire, né le 17 février 1814 à Ferrières (Seine-et-Marne) et décédé le 8 mars 1873 aux Lilas (Seine), est un médecin et pharmacien français. Il fut le premier à découvrir les propriétés antiseptiques de l'acide phénique.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Lemaire, pharmacien et chimiste, avait été chargé par le docteur Ferdinand Le Beuf, pharmacien à Bayonne, d'expérimenter une préparation de coaltar (goudron de houille) émulsionné à l'aide d'une teinture alcoolique de saponine. Lemaire reconnut à cette préparation des propriétés germicides, dues à l'acide phénique issu du coaltar, et publia les résultats de ces recherches en 1860 dans un ouvrage intitulé : Du coaltar saponiné, désinfectant énergique[1].
-Jules Lemaire expérimenta ensuite les effets de l'acide phénique parallèlement à ceux du coaltar, et présenta les résultats de l'ensemble de ses travaux dans un nouvel ouvrage publié en 1863 : De l'acide phénique, de son action sur les végétaux, les animaux, les ferments, les venins, les virus, les miasmes et de ses applications à l'industrie, à l'hygiène, aux sciences anatomiques et à la thérapeutique. Il donnait ici sa préférence à l'acide phénique, plus énergique et de maniement plus facile, et préconisait l'acide phénique en solution aqueuse à 5 %. L'ouvrage fut épuisé en quelques mois et dut être réédité en 1865[2].
-Une longue polémique, commencée en 1865, l'opposa au docteur Gilbert Déclat (1827-1896)[3] sur la primauté de cette découverte. Les publications scientifiques de Jules Lemaire à ce sujet étant bien antérieures à celles de Déclat[4], la primauté de la découverte revenait donc bien à Jules Lemaire.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Lemaire, pharmacien et chimiste, avait été chargé par le docteur Ferdinand Le Beuf, pharmacien à Bayonne, d'expérimenter une préparation de coaltar (goudron de houille) émulsionné à l'aide d'une teinture alcoolique de saponine. Lemaire reconnut à cette préparation des propriétés germicides, dues à l'acide phénique issu du coaltar, et publia les résultats de ces recherches en 1860 dans un ouvrage intitulé : Du coaltar saponiné, désinfectant énergique.
+Jules Lemaire expérimenta ensuite les effets de l'acide phénique parallèlement à ceux du coaltar, et présenta les résultats de l'ensemble de ses travaux dans un nouvel ouvrage publié en 1863 : De l'acide phénique, de son action sur les végétaux, les animaux, les ferments, les venins, les virus, les miasmes et de ses applications à l'industrie, à l'hygiène, aux sciences anatomiques et à la thérapeutique. Il donnait ici sa préférence à l'acide phénique, plus énergique et de maniement plus facile, et préconisait l'acide phénique en solution aqueuse à 5 %. L'ouvrage fut épuisé en quelques mois et dut être réédité en 1865.
+Une longue polémique, commencée en 1865, l'opposa au docteur Gilbert Déclat (1827-1896) sur la primauté de cette découverte. Les publications scientifiques de Jules Lemaire à ce sujet étant bien antérieures à celles de Déclat, la primauté de la découverte revenait donc bien à Jules Lemaire.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Portée de sa découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les propriétés antiseptiques de l'acide phénique découvertes par Jules Lemaire seront mises à profit par le chirurgien britannique Joseph Lister (1827-1912), pionnier de la méthode antiseptique en chirurgie opératoire, qui eut l'idée de passer tous ses outils de chirurgie et ses blouses à l'acide phénique, ainsi que les blessures des opérés, faisant ainsi chuter le taux de mortalité post-opératoire de 40% à 15%.
 </t>
@@ -575,7 +591,9 @@
           <t>Titres et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jules Lemaire était :
 Docteur en médecine.
